--- a/medicine/Enfance/John_Reese_(écrivain)/John_Reese_(écrivain).xlsx
+++ b/medicine/Enfance/John_Reese_(écrivain)/John_Reese_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John_Reese_(%C3%A9crivain)</t>
+          <t>John_Reese_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Reese, né le 18 décembre 1910 à Sweetwater, Nebraska (en) et mort le 15 août 1981 à Santa Maria en Californie, est un écrivain américain spécialisé dans l'écriture de western. Il a également écrit des romans pour la jeunesse et deux romans policiers, dont l'un a été adapté au cinéma sous le titre Tuez Charley Varrick ! par Don Siegel. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John_Reese_(%C3%A9crivain)</t>
+          <t>John_Reese_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il quitte l’école jeune et exerce divers métiers : valet de ferme, ouvrier d’usine, maçon, chauffeur de taxi, ouvrier agricole itinérant. Il commence à écrire des nouvelles pour les pulps dans les années 1930. En 1939, il devient reporter pour le Los Angeles Herald-Examiner (en) jusqu’en 1944. Il devient écrivain à temps plein en 1948, signant de son nom ou sous divers pseudonymes de nombreuses nouvelles pour les pulps et les magazines américains de l'époque : Alfred Hitchcock’s Mystery Magazine, Black Mask, Dime Western Magazine, The Saturday Evening Post. Il fait également paraître plusieurs romans qui sont surtout des westerns, genre qu’il délaissera rarement pendant sa longue carrière d'écrivain.
 En France, il entre dans la Série noire en 1969 avec la traduction de son premier roman policier The Looters sous le titre Les Pillards, roman qui est adapté au cinéma en 1973 sous le titre Tuez Charley Varrick ! par Don Siegel. L’auteur connaît deux autres publications à la Série noire avant de rejoindre pour deux nouveaux titres la collection Super noire. Par ailleurs, son second roman policier, Pity Us All (1969), est traduit par l’éditeur Christian Bourgeois sous le titre Pitié pour nous en 1972.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>John_Reese_(%C3%A9crivain)</t>
+          <t>John_Reese_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Westerns
-Série Jefferson Hewitt
-Weapon Heavy (1973)
+          <t>Westerns</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Jefferson Hewitt</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Weapon Heavy (1973)
 The Sharpshooter (1974)
 Texas Gold (1975)
 Wes Hardin's Gun (1975)
@@ -557,9 +579,47 @@
 The Cherokee Diamondback (1977)
 Dead Eye (1978)
 A Pair of Deuces (1978)
-Two Thieves and a Puma (1980)
-Autres westerns
-Signal Guns At Sunup (1950)
+Two Thieves and a Puma (1980)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>John_Reese_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Westerns</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres westerns</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Signal Guns At Sunup (1950)
 The High Passes (1954)
 Sure Shot Shapiro (1968) Publié en français sous le titre Alias tire-au-but, traduction de Georges Louedec, Paris, Gallimard, Série noire no 1291, 1969.
 Sunblind Range (1968)
@@ -576,23 +636,205 @@
 A Sheriff for All the People (1976) Publié en français sous le titre Un shériff pour tout le monde, traduction de Simone Hilling, Paris, Gallimard, Super noire no 56, 1976.
 Halter-Broke (1977)
 Legacy of a Land Hog (1979)
-Maximum Range (1981)
-Westerns signés Cody Kennedy Jr.
-The WIld Land (1979)
+Maximum Range (1981)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>John_Reese_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Westerns</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Westerns signés Cody Kennedy Jr.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The WIld Land (1979)
 Warrior Flame (1980)
-The Conquering Clan (1980)
-Western signé John Jo Carpenter
-Signal Guns at Sunup (1950)
-Romans policiers et autres romans
-Sheehan's Mill (1943)
+The Conquering Clan (1980)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>John_Reese_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Westerns</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Western signé John Jo Carpenter</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Signal Guns at Sunup (1950)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>John_Reese_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans policiers et autres romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sheehan's Mill (1943)
 The Looters (1968) Publié en français sous le titre Les Pillards, traduction de France-Marie Watkins, Paris, Gallimard, Série noire no 1265, 1969.
-Pity Us All (1969) Publié en français sous le titre Pitié pour nous, traduction de Paul Perez, Paris, Christian Bourgeois, 1972.
-Ouvrages pour la jeunesse
-Big Mutt (1952)
+Pity Us All (1969) Publié en français sous le titre Pitié pour nous, traduction de Paul Perez, Paris, Christian Bourgeois, 1972.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>John_Reese_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Big Mutt (1952)
 Three Wild Ones (1963)
-Dinky (1964)
-Nouvelles
-Signées John Reese
+Dinky (1964)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>John_Reese_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Signées John Reese</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Theater of War (1944)
 Born to Lead (1945)
 No Deduction for Aspirin, Please (1947)
@@ -689,7 +931,47 @@
 The World’s Second Oldest Profession (1966)
 Murderer’s Holiday (1966)
 The Power of Deduction (1967) Publié en français sous le titre La Belle et le Capitaine, traduction de Denise Bay, Paris, Opta, Alfred Hitchcock magazine no 81, février 1968.
-Signées John Jo Carpenter
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>John_Reese_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Signées John Jo Carpenter</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Nester King of Coffinrock (1942)
 Doctor of Frontier Medicine (1942)
 Death Trail’s Sixgun Saint (1942)
@@ -831,8 +1113,47 @@
 Buckshot Bargain (1953)
 Lynch Him (1955)
 The Reluctant Hangman (1956)
-Signées Camford Sheavely
-Something Fishy (1944)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>John_Reese_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Signées Camford Sheavely</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Something Fishy (1944)
 Brush with Murder (1945)
 Cold Beef, Bloody Beef (1945)
 Guy Who Kill People (1946)
@@ -841,75 +1162,158 @@
 Ware the Wan Wino (1946)
 Fraidy-Cat Killer (1946)
 The Worm Has Fanfs (1946)
-The Tie That Blinds (1947)
-Signées Camford Cheavly
-Love The Enemy! (1947)
+The Tie That Blinds (1947)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>John_Reese_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Signées Camford Cheavly</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Love The Enemy! (1947)
 Trail to Nowhere (1947)
 Shoot-Out at Black Canyon (1947)
-Fighting Son of Rio Honcho (1948)
-Signée Eddie Abbott
-Don't Tell Me Women Are Helpess! (1955)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>John_Reese_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Fighting Son of Rio Honcho (1948)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>John_Reese_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Signée Eddie Abbott</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Don't Tell Me Women Are Helpess! (1955)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>John_Reese_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Au cinéma
-1959 : Californie, terre nouvelle (The Young Land), film américain réalisé par Ted Tetzlaff d’après une nouvelle de l’auteur, avec Dennis Hopper et Patrick Wayne.
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1959 : Californie, terre nouvelle (The Young Land), film américain réalisé par Ted Tetzlaff d’après une nouvelle de l’auteur, avec Dennis Hopper et Patrick Wayne.
 1959 : Good Day for a Hanging, film américain réalisé par Nathan Juran d’après une nouvelle de l’auteur.
 1973 : Tuez Charley Varrick !, film américain réalisé par Don Siegel, d'après le roman The Looters, avec Walter Matthau.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>John_Reese_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>John_Reese_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Reese_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Claude Mesplède, Dictionnaire des littératures policières, volume 2, Nantes, Éditions Joseph K, coll. Temps noir, 2007, p. 632.
 Les Auteurs de la Série Noire, 1945-1995, collection Temps noir, Joseph K., 1996, (avec Claude Mesplède), p. 394.</t>
